--- a/biology/Neurosciences/Fritz_Buchthal/Fritz_Buchthal.xlsx
+++ b/biology/Neurosciences/Fritz_Buchthal/Fritz_Buchthal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritz Buchthal, né le 19 août 1907 à Witten et mort le 24 décembre 2003 à Santa Barbara (Californie), est un neurophysiologiste danois d'origine juive allemande.
 </t>
@@ -511,7 +523,9 @@
           <t>Carrière scientifique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fritz Buchthal dirige un laboratoire de recherche à l'université Humboldt de Berlin, jusqu'à ce qu'en 1933, l'arrivée au pouvoir des nazis ne l'oblige à fuir au Danemark. C'est là, à l'université de Copenhague, qu'il s'engage dans la recherche en neurophysiologie. En 1943, fuyant à nouveau la persécution des juifs allemands et bénéficiant de la filière de sauvetage des juifs du Danemark, il trouve refuge en Suède et enseigne à l'université de Lund. Après la guerre, il se fixe définitivement au Danemark, où en 1946, il obtient la nationalité danoise. En 1955, il devient le premier professeur danois de neurophysiologie, à l'université de Copenhague.
 </t>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de) Über das Refraktärstadium des Vorhofs. In: Zeitschrift für Biologie. Bd 91, H. 5. 1931 (S. 349–357), Lehmanns Verlag, München (1931); Berlin, Med. Diss., 1932 (Hochschulschrift)
 (en) An Introduction to electromyography Gyldendal, Scandinavian University Books, Kobenhavn, 1957.</t>
